--- a/ability.xlsx
+++ b/ability.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Russell DKY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13918\Documents\Summer\Pokemon-Battle-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4CA8DA-E1DF-4720-9142-91A31FEC4F9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="322">
   <si>
     <t>ID</t>
   </si>
@@ -950,38 +951,10 @@
     <t>raises the user's Special Defense by two stages</t>
   </si>
   <si>
-    <t>decreases the target's accuracy stat by one stage</t>
-  </si>
-  <si>
     <t>decreases the target's accuracy stat by one stage,can now be reflected with Magic Coat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no longer fails if the difference between the user's maximum HP and current HP is 255 modulo 256</t>
-  </si>
-  <si>
-    <t>if missed, crash damage is equal to half of the user's max HP, rounded down.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glare paralyzes the target,it can hit Ghost-type Pokémon.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only works if the target is asleep,cannot be used if the user is under the effects of Heal Block.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poisons the target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up to 50% of the damage dealt to the target is restored to the user as HP</t>
-  </si>
-  <si>
-    <t>causes the target to fall asleep.</t>
-  </si>
-  <si>
     <t>Pokémon with Insomnia or Vital Spirit as their Ability are unaffected by Lovely Kiss. Pokémon under the effect of Sweet Veil are also unaffected by Lovely Kiss</t>
   </si>
   <si>
@@ -992,31 +965,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>has a 33.2% chance of lowering the target's Speed stat by one stage</t>
-  </si>
-  <si>
-    <t>has a 20% chance of confusing the target</t>
-  </si>
-  <si>
     <t>Grass-type Pokémon, Pokémon with Overcoat, and Pokémon holding the Safety Goggles are now immune to Spore. Pokémon under the effect of Sweet Veil are also unaffected by Spore</t>
-  </si>
-  <si>
-    <t>inflicts a random amount of damage, varying between 1 damage and 1.5× the user's level.</t>
-  </si>
-  <si>
-    <t>After the player selects the move, the game will simply show a dipping animation and then the message, "No effect!"</t>
-  </si>
-  <si>
-    <t>increases the user's Defense by two stages.</t>
   </si>
   <si>
     <t>deals damage and has an increased critical hit ratio. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inflicts damage, and causes the user to faint</t>
-  </si>
-  <si>
     <t>Bonemerang inflicts damage, hitting the target twice per use.</t>
   </si>
   <si>
@@ -1024,33 +979,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no effect</t>
+    <t>has a 10% chance of causing the target to flinch.</t>
+  </si>
+  <si>
+    <t>has an increased critical hit ratio</t>
+  </si>
+  <si>
+    <t>substitution?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg = (int(pkmn2[1]) * 0.5)\nif dmg == 0:\n\tdmg == 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[17] = pkmn2[17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[11] = int(pkmn[11]) + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>has a 10% chance of causing the target to flinch.</t>
-  </si>
-  <si>
-    <t>increases the user's Attack stat by one stage</t>
-  </si>
-  <si>
-    <t>changes the user's current type(s) to the target's current type(s).</t>
-  </si>
-  <si>
-    <t>does damage equal to 50% of the target's current HP. It always deals at least 1 HP of damage</t>
-  </si>
-  <si>
-    <t>has an increased critical hit ratio</t>
-  </si>
-  <si>
-    <t>substitution?</t>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[1] = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[12] = int(pkmn[12]) + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print("No Effect")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg = int((random.random() / 2 + 1) * int(pkmn1[1]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn2[18] = int(pkmn2[18]) - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if random.random() &lt; 0.2:\n\tpkmn2[16] = "confused"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if random.random() &lt; 0.1:\n\tpkmn2[15] = int(pkmn2[15]) - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn2[16] = "sleep"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn1[1] = int(int(pkmn1[1]) + dmg * 0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn2[16] = "poison"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if not pkmn2[16] == "sleep":\n\tdmg = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkmn2[16] = "paralyze"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if dmg == 0:\n\tpkmn1[1] = int(int(pkmn1[1]) - dmg / 2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1381,16 +1395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1431,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1444,7 +1458,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1471,7 +1485,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1498,7 +1512,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1525,7 +1539,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1552,7 +1566,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1579,7 +1593,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1606,7 +1620,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1633,7 +1647,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1660,7 +1674,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1687,7 +1701,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1714,7 +1728,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1741,7 +1755,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1768,7 +1782,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1795,7 +1809,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1822,7 +1836,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1849,7 +1863,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1876,7 +1890,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1903,7 +1917,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1930,7 +1944,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1957,7 +1971,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1984,7 +1998,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2011,7 +2025,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2038,7 +2052,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2065,7 +2079,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2092,7 +2106,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2119,7 +2133,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2146,7 +2160,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2173,7 +2187,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2200,7 +2214,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2227,7 +2241,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2254,7 +2268,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2281,7 +2295,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2308,7 +2322,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2335,7 +2349,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2362,7 +2376,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2389,7 +2403,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2416,7 +2430,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2443,7 +2457,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2470,7 +2484,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2497,7 +2511,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2524,7 +2538,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2551,7 +2565,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2578,7 +2592,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2605,7 +2619,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2632,7 +2646,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2659,7 +2673,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2686,7 +2700,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2713,7 +2727,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2740,7 +2754,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2767,7 +2781,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2794,7 +2808,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2821,7 +2835,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2848,7 +2862,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2875,7 +2889,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2902,7 +2916,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2929,7 +2943,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2956,7 +2970,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2983,7 +2997,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3010,7 +3024,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3037,7 +3051,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3064,7 +3078,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3091,7 +3105,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3118,7 +3132,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3145,7 +3159,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3172,7 +3186,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3199,7 +3213,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3226,7 +3240,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3253,7 +3267,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3280,7 +3294,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3307,7 +3321,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3334,7 +3348,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3361,7 +3375,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3388,7 +3402,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3415,7 +3429,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3442,7 +3456,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3469,7 +3483,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3496,7 +3510,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3523,7 +3537,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3550,7 +3564,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3577,7 +3591,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3604,7 +3618,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3631,7 +3645,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3658,7 +3672,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3685,7 +3699,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3712,7 +3726,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3739,7 +3753,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3766,7 +3780,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3793,7 +3807,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3820,7 +3834,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3847,7 +3861,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3874,7 +3888,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3901,7 +3915,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3928,7 +3942,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3955,7 +3969,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3982,7 +3996,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4009,7 +4023,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4036,7 +4050,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4063,7 +4077,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4090,7 +4104,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4117,7 +4131,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4144,7 +4158,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4171,7 +4185,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4198,7 +4212,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4225,7 +4239,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4252,7 +4266,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4279,7 +4293,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4306,7 +4320,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4333,7 +4347,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4360,7 +4374,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4387,7 +4401,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4414,7 +4428,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4441,7 +4455,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4468,7 +4482,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4495,7 +4509,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4522,7 +4536,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4549,7 +4563,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4576,7 +4590,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4603,7 +4617,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4630,7 +4644,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4657,7 +4671,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4684,7 +4698,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4711,7 +4725,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4738,7 +4752,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4765,7 +4779,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4792,7 +4806,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4819,7 +4833,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4846,7 +4860,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4873,7 +4887,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4900,7 +4914,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4927,7 +4941,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4954,7 +4968,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4981,7 +4995,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5008,7 +5022,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5031,11 +5045,11 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5058,11 +5072,13 @@
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5085,11 +5101,13 @@
         <v>130</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5112,11 +5130,13 @@
         <v>0</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5136,14 +5156,16 @@
         <v>15</v>
       </c>
       <c r="G139" s="1">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5166,11 +5188,13 @@
         <v>0</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5197,7 +5221,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5220,11 +5244,13 @@
         <v>80</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5247,14 +5273,16 @@
         <v>0</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I143" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="L143" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5277,11 +5305,11 @@
         <v>200</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5304,11 +5332,11 @@
         <v>0</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -5331,11 +5359,13 @@
         <v>40</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -5358,11 +5388,13 @@
         <v>70</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -5385,11 +5417,11 @@
         <v>0</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -5412,11 +5444,13 @@
         <v>0</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -5439,11 +5473,13 @@
         <v>0</v>
       </c>
       <c r="H150" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I150" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -5466,11 +5502,13 @@
         <v>0</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -5495,9 +5533,11 @@
       <c r="H152" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I152" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -5520,11 +5560,11 @@
         <v>100</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -5547,11 +5587,13 @@
         <v>250</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -5578,7 +5620,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5601,11 +5643,11 @@
         <v>50</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5628,11 +5670,11 @@
         <v>0</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -5655,11 +5697,13 @@
         <v>75</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -5682,11 +5726,11 @@
         <v>80</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -5709,11 +5753,13 @@
         <v>0</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -5736,11 +5782,13 @@
         <v>0</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -5763,11 +5811,13 @@
         <v>80</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -5790,11 +5840,13 @@
         <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -5817,11 +5869,11 @@
         <v>70</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -5844,12 +5896,13 @@
         <v>0</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="I165" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>